--- a/RPS Algoritma dan Pemrograman.xlsx
+++ b/RPS Algoritma dan Pemrograman.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Praktikum" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,7 @@
 2. Kemampuan mahasiswa membuat program pengurutan</t>
   </si>
   <si>
-    <t>: Algoritma dan Pemrograman</t>
-  </si>
-  <si>
     <t>: II</t>
-  </si>
-  <si>
-    <t>: Praktikum Algoritma dan Pemrograman</t>
   </si>
   <si>
     <t>: III</t>
@@ -411,6 +405,12 @@
   </si>
   <si>
     <t>Munir, Rinaldi. Algoritma dan Pemrograman Dalam Bahasa Pascal, C dan C++ Edisi Keenam. Informatika. Bandung</t>
+  </si>
+  <si>
+    <t>: Praktikum Algoritma dan Pemrograman / FIK001117</t>
+  </si>
+  <si>
+    <t>: Algoritma dan Pemrograman / FIK001117</t>
   </si>
 </sst>
 </file>
@@ -577,52 +577,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,95 +1022,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
@@ -1140,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1191,20 +1191,20 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="B17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1222,16 +1222,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1248,29 +1248,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1287,22 +1287,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="35">
         <v>1</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="35">
         <v>2</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="35">
         <v>3</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="10" t="s">
         <v>53</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="35">
         <v>4</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1461,10 +1461,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="35">
         <v>5</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
@@ -1488,18 +1488,18 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="35">
         <v>6</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>36</v>
@@ -1515,10 +1515,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
+      <c r="A36" s="35">
         <v>7</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="35">
         <v>8</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="35">
         <v>9</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="35">
         <v>10</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
@@ -1644,10 +1644,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="35">
         <v>13</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="10" t="s">
         <v>60</v>
       </c>
@@ -1671,10 +1671,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="35">
         <v>14</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
@@ -1698,10 +1698,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="A43" s="35">
         <v>15</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
@@ -1725,10 +1725,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="36">
         <v>16</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1777,7 +1777,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1912,6 +1912,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1920,27 +1941,6 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1952,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,95 +1969,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2084,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2094,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2130,23 +2130,23 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="B17" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="23"/>
     </row>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2191,29 +2191,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2230,22 +2230,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
@@ -2269,10 +2269,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
@@ -2296,10 +2296,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+      <c r="A30" s="38">
         <v>1</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -2323,10 +2323,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+      <c r="A31" s="38">
         <v>2</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
@@ -2350,10 +2350,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+      <c r="A32" s="38">
         <v>3</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="10" t="s">
         <v>53</v>
       </c>
@@ -2377,10 +2377,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="38">
         <v>4</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2404,10 +2404,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="38">
         <v>5</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
@@ -2431,18 +2431,18 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="38">
         <v>6</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>36</v>
@@ -2458,10 +2458,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="38">
         <v>7</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2479,10 +2479,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="A37" s="38">
         <v>8</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
@@ -2506,10 +2506,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="38">
         <v>9</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
@@ -2533,10 +2533,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+      <c r="A39" s="38">
         <v>10</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
@@ -2560,10 +2560,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
@@ -2587,10 +2587,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="38">
         <v>13</v>
       </c>
-      <c r="B41" s="39"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="10" t="s">
         <v>60</v>
       </c>
@@ -2614,10 +2614,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+      <c r="A42" s="38">
         <v>14</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
@@ -2641,10 +2641,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+      <c r="A43" s="38">
         <v>15</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
@@ -2668,10 +2668,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="38">
         <v>16</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2855,6 +2855,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -2867,23 +2884,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/RPS Algoritma dan Pemrograman.xlsx
+++ b/RPS Algoritma dan Pemrograman.xlsx
@@ -577,6 +577,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -595,34 +619,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1022,95 +1022,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
@@ -1191,16 +1191,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1222,16 +1222,16 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1248,29 +1248,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1287,22 +1287,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="25">
         <v>1</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="25">
         <v>2</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+      <c r="A32" s="25">
         <v>3</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="10" t="s">
         <v>53</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="25">
         <v>4</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -1461,10 +1461,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="25">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="25">
         <v>6</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="10" t="s">
         <v>107</v>
       </c>
@@ -1515,10 +1515,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+      <c r="A36" s="25">
         <v>7</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="25">
         <v>8</v>
       </c>
-      <c r="B37" s="35"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="25">
         <v>9</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="25">
         <v>10</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
@@ -1644,10 +1644,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
+      <c r="A41" s="25">
         <v>13</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="10" t="s">
         <v>60</v>
       </c>
@@ -1671,10 +1671,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
+      <c r="A42" s="25">
         <v>14</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
@@ -1698,10 +1698,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
+      <c r="A43" s="25">
         <v>15</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
@@ -1725,10 +1725,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="A44" s="24">
         <v>16</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -1912,27 +1912,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
@@ -1941,6 +1920,27 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1953,7 +1953,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,95 +1969,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
@@ -2130,16 +2130,16 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="23"/>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2191,29 +2191,29 @@
     </row>
     <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2230,22 +2230,22 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
@@ -2269,10 +2269,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
@@ -2296,10 +2296,10 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="39">
         <v>1</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
@@ -2323,10 +2323,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="39">
         <v>2</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
@@ -2350,10 +2350,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="A32" s="39">
         <v>3</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="10" t="s">
         <v>53</v>
       </c>
@@ -2377,10 +2377,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="39">
         <v>4</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2404,10 +2404,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="A34" s="39">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="10" t="s">
         <v>55</v>
       </c>
@@ -2431,10 +2431,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
+      <c r="A35" s="39">
         <v>6</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="10" t="s">
         <v>107</v>
       </c>
@@ -2458,10 +2458,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
+      <c r="A36" s="39">
         <v>7</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
@@ -2479,10 +2479,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
+      <c r="A37" s="39">
         <v>8</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
@@ -2506,10 +2506,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
+      <c r="A38" s="39">
         <v>9</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
@@ -2533,10 +2533,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="39">
         <v>10</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
@@ -2560,10 +2560,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
@@ -2587,10 +2587,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="A41" s="39">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="10" t="s">
         <v>60</v>
       </c>
@@ -2614,10 +2614,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="A42" s="39">
         <v>14</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="10" t="s">
         <v>61</v>
       </c>
@@ -2641,10 +2641,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="A43" s="39">
         <v>15</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="10" t="s">
         <v>62</v>
       </c>
@@ -2668,10 +2668,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
+      <c r="A44" s="39">
         <v>16</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
@@ -2855,11 +2855,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -2872,18 +2879,11 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
